--- a/data/trans_dic/P34B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03060672329429578</v>
+        <v>0.02992001204235199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03784688024833825</v>
+        <v>0.03992281701680872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1038571955839023</v>
+        <v>0.1059817032970949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02175365876789516</v>
+        <v>0.02094625145817313</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02294619521749428</v>
+        <v>0.02289544919830386</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1026593668590414</v>
+        <v>0.1025853392177144</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0292885424771313</v>
+        <v>0.02865571963332654</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.034019516843001</v>
+        <v>0.03470002653659813</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1123117369042429</v>
+        <v>0.1128174256625533</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06160476780285064</v>
+        <v>0.06087345142546956</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07479187216345169</v>
+        <v>0.07565023025970702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1697728125190276</v>
+        <v>0.1668692798274736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05230674209221006</v>
+        <v>0.05020435092952762</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05174253630724002</v>
+        <v>0.05068273006602445</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1479784601594492</v>
+        <v>0.1466130750736852</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05019884381363034</v>
+        <v>0.04959885068546537</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05663338913037871</v>
+        <v>0.05607921358097628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1529277994035043</v>
+        <v>0.1507745739478402</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03361820387983191</v>
+        <v>0.03506509437301013</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07580417787123284</v>
+        <v>0.07278023826771472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1668855530296616</v>
+        <v>0.1687911978831909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02314537267975992</v>
+        <v>0.02327979485121495</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04845471486710604</v>
+        <v>0.04975568957384561</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1253334697887239</v>
+        <v>0.1247777840938196</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0324469217439382</v>
+        <v>0.03214201746997285</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06516913875715569</v>
+        <v>0.06507137617545947</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1527141809587563</v>
+        <v>0.1528028215190829</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.060259063684779</v>
+        <v>0.05949617349473778</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1140154661433687</v>
+        <v>0.1092614882942347</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2253880870778978</v>
+        <v>0.2265617923204674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04825087866287585</v>
+        <v>0.04899846231071681</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08013546454300122</v>
+        <v>0.08095267049426839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1637303216163852</v>
+        <v>0.1645866674678509</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04974120785692023</v>
+        <v>0.05030072511487767</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08897725627220918</v>
+        <v>0.08967175885811374</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1880996899483549</v>
+        <v>0.1903603620179427</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.04913275821599442</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1622642241461673</v>
+        <v>0.1622642241461672</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04142159427422292</v>
+        <v>0.04316547403531876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04166203981115494</v>
+        <v>0.04171771610654674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1757016874033833</v>
+        <v>0.1762695325600569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02763876019758257</v>
+        <v>0.02780377229961073</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02843099544501373</v>
+        <v>0.02855596814486253</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09751828003387826</v>
+        <v>0.09721609265631322</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03793621498375645</v>
+        <v>0.03921080583293896</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03886151653126276</v>
+        <v>0.03827229955851917</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1428669991827837</v>
+        <v>0.142779156295203</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0759611758274496</v>
+        <v>0.0774460367499997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07868644815273912</v>
+        <v>0.07569696606999832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2444872750032784</v>
+        <v>0.248587747463964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05648909021070939</v>
+        <v>0.05781354818624033</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05811281753861913</v>
+        <v>0.05854801619326617</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1398103559575332</v>
+        <v>0.1386186799694388</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06138261435437032</v>
+        <v>0.06197456134625931</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06178345262210166</v>
+        <v>0.06107296015385284</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1848517736941279</v>
+        <v>0.1830963247998508</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05033429991747399</v>
+        <v>0.04991731680205028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07043974819515031</v>
+        <v>0.07127146824356465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1983587173373333</v>
+        <v>0.1987368375958261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03144686986534811</v>
+        <v>0.03154604491432265</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04785673539851653</v>
+        <v>0.05007983025598049</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1294227474324376</v>
+        <v>0.1298587527036334</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04399623238565141</v>
+        <v>0.0443895273229056</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0637500690534107</v>
+        <v>0.06459793252300783</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1694019119430659</v>
+        <v>0.1685514150902723</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08290480704537992</v>
+        <v>0.08303785586388912</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1097058463311988</v>
+        <v>0.1089870629866722</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2622835202045958</v>
+        <v>0.2609209688961767</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05739423415477846</v>
+        <v>0.05943429339389149</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07974282642123162</v>
+        <v>0.08003330710172119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1688511043595379</v>
+        <v>0.1686167221076794</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06595372208436814</v>
+        <v>0.06540038935430069</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08780287420466347</v>
+        <v>0.08941007699519624</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2043450443648068</v>
+        <v>0.2033138429871629</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.07559984595252381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.195415752650396</v>
+        <v>0.1954157526503959</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.03811681412042272</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04573963639783691</v>
+        <v>0.04630160944144025</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06717621595733821</v>
+        <v>0.066057573211288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1786989794733453</v>
+        <v>0.1797131116115354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03179402566752425</v>
+        <v>0.03181173765077334</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04465727154842899</v>
+        <v>0.04533263919178642</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.125573127300645</v>
+        <v>0.1260916677171474</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04063278113493324</v>
+        <v>0.04057068393409177</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0582955930728952</v>
+        <v>0.05806759344065669</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.156151203797323</v>
+        <v>0.1557148372379167</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06190647062915604</v>
+        <v>0.06204739043470985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08573384716000033</v>
+        <v>0.08453122657119418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2116674758469237</v>
+        <v>0.2129702940658258</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.045437978934699</v>
+        <v>0.04583184117169124</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05961931036950546</v>
+        <v>0.06046473762604151</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.145856692556365</v>
+        <v>0.1460825651930765</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05076562781234743</v>
+        <v>0.05073156814903131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07032825910948466</v>
+        <v>0.06997540464007232</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1745985881246455</v>
+        <v>0.1741567853101867</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21495</v>
+        <v>21013</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25539</v>
+        <v>26940</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>71454</v>
+        <v>72916</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15163</v>
+        <v>14601</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15439</v>
+        <v>15405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>75084</v>
+        <v>75030</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>40985</v>
+        <v>40099</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45846</v>
+        <v>46763</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159415</v>
+        <v>160132</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43265</v>
+        <v>42751</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50470</v>
+        <v>51049</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>116804</v>
+        <v>114806</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36460</v>
+        <v>34995</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34814</v>
+        <v>34101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>108230</v>
+        <v>107232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>70246</v>
+        <v>69406</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>76321</v>
+        <v>75575</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>217065</v>
+        <v>214009</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34222</v>
+        <v>35694</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77505</v>
+        <v>74413</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>174643</v>
+        <v>176637</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23846</v>
+        <v>23985</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>50534</v>
+        <v>51891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>134114</v>
+        <v>133519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66459</v>
+        <v>65835</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>134597</v>
+        <v>134395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>323226</v>
+        <v>323413</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61341</v>
+        <v>60564</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>116573</v>
+        <v>111712</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>235865</v>
+        <v>237093</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>49712</v>
+        <v>50483</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>83574</v>
+        <v>84427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>175201</v>
+        <v>176117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>101882</v>
+        <v>103028</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>183769</v>
+        <v>185203</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>398121</v>
+        <v>402906</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31382</v>
+        <v>32703</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31644</v>
+        <v>31687</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>141101</v>
+        <v>141557</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21480</v>
+        <v>21608</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22319</v>
+        <v>22417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>78976</v>
+        <v>78731</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>58224</v>
+        <v>60181</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60024</v>
+        <v>59114</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>230434</v>
+        <v>230293</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57550</v>
+        <v>58675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59766</v>
+        <v>57496</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>196341</v>
+        <v>199634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43902</v>
+        <v>44931</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45619</v>
+        <v>45961</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>113226</v>
+        <v>112261</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>94210</v>
+        <v>95118</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>95428</v>
+        <v>94331</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>298153</v>
+        <v>295322</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47659</v>
+        <v>47264</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66042</v>
+        <v>66822</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>196166</v>
+        <v>196540</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33079</v>
+        <v>33183</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49952</v>
+        <v>52272</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>144556</v>
+        <v>145043</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>87937</v>
+        <v>88723</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>126311</v>
+        <v>127991</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>356739</v>
+        <v>354948</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>78498</v>
+        <v>78624</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>102857</v>
+        <v>102183</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>259384</v>
+        <v>258036</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60373</v>
+        <v>62519</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83234</v>
+        <v>83537</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>188595</v>
+        <v>188333</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>131825</v>
+        <v>130719</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>173968</v>
+        <v>177152</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>430325</v>
+        <v>428153</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>156645</v>
+        <v>158570</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>228020</v>
+        <v>224223</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>630183</v>
+        <v>633759</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>113073</v>
+        <v>113136</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>158290</v>
+        <v>160683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>468166</v>
+        <v>470099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>283663</v>
+        <v>283229</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>404507</v>
+        <v>402925</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1132836</v>
+        <v>1129671</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>212012</v>
+        <v>212494</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>291011</v>
+        <v>286929</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>746446</v>
+        <v>751041</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>161596</v>
+        <v>162997</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>211323</v>
+        <v>214320</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>543788</v>
+        <v>544630</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>354401</v>
+        <v>354163</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>488000</v>
+        <v>485552</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1266667</v>
+        <v>1263462</v>
       </c>
     </row>
     <row r="24">
